--- a/tests/data/test_data_02.xlsx
+++ b/tests/data/test_data_02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wizz/Documents/Projects/excelcy/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80AD5F9-944E-7C40-91CA-A656597D9C16}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4F341D-3B9A-CB4C-BD03-B86F9E4644B7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="train" sheetId="1" r:id="rId1"/>
@@ -78,13 +78,13 @@
     <t>train.matcher</t>
   </si>
   <si>
-    <t>nlp/test_data_02</t>
-  </si>
-  <si>
     <t>a week</t>
   </si>
   <si>
     <t>DATE</t>
+  </si>
+  <si>
+    <t>[tmp]/nlp/test_data_02</t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B93662-D338-7A4C-897B-C0C87D585A42}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -493,13 +493,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -511,7 +511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -548,7 +548,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">

--- a/tests/data/test_data_02.xlsx
+++ b/tests/data/test_data_02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wizz/Documents/Projects/excelcy/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4F341D-3B9A-CB4C-BD03-B86F9E4644B7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EE782F-E9B3-3741-B4CB-FEE912AF6FE1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="train" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -511,7 +511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/tests/data/test_data_02.xlsx
+++ b/tests/data/test_data_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wizz/Documents/Projects/excelcy/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EE782F-E9B3-3741-B4CB-FEE912AF6FE1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9DC9DB-C205-C14F-84AD-7882001D60DF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">

--- a/tests/data/test_data_02.xlsx
+++ b/tests/data/test_data_02.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wizz/Documents/Projects/excelcy/tests/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wizz/Documents/Projects/kororo/excelcy/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F179B379-534C-6643-889B-4C3BAD92281E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D124CAE-1F95-7945-9F7F-BDA493806BA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,8 +81,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -110,9 +118,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -428,13 +440,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -483,10 +495,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -519,7 +531,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
